--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8BA810-892A-49F2-AE79-70DAA4B0EDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92507D09-01BE-4D26-A89F-2C7F0EA185AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hello World!</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>ad</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -379,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -465,7 +468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -504,7 +507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>4</v>
       </c>
@@ -540,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>5</v>
       </c>
@@ -576,7 +579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>6</v>
       </c>
@@ -612,7 +615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>7</v>
       </c>
@@ -648,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>8</v>
       </c>
@@ -684,7 +687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>9</v>
       </c>
@@ -720,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>10</v>
       </c>
@@ -754,6 +757,11 @@
       <c r="M10">
         <f t="shared" si="0"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
